--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229918.7631170237</v>
+        <v>243645.1212544419</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
         <v>25483.7760014399</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006227</v>
+        <v>3999.991936006219</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006227</v>
+        <v>3999.991936006219</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006227</v>
+        <v>3999.991936006219</v>
       </c>
       <c r="E6" t="n">
-        <v>-76454.97699405051</v>
+        <v>-76454.97699405056</v>
       </c>
       <c r="F6" t="n">
         <v>56645.02300594949</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243645.1212544419</v>
+        <v>118535.2224569652</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="C2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239769</v>
       </c>
       <c r="F2" t="n">
         <v>85740.41111239771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006219</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006219</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006219</v>
+        <v>-11150.68203402853</v>
       </c>
       <c r="E6" t="n">
-        <v>-76454.97699405056</v>
+        <v>-91264.99383316448</v>
       </c>
       <c r="F6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="G6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="H6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="I6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="J6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="K6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="L6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="M6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="N6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="O6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
       <c r="P6" t="n">
-        <v>56645.02300594949</v>
+        <v>41835.00616683558</v>
       </c>
     </row>
   </sheetData>
